--- a/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
+++ b/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,33 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>ололо</t>
-  </si>
-  <si>
-    <t>трололо</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Результаты I4PLAN</t>
-  </si>
-  <si>
-    <t>Результаты реализованного ПО</t>
   </si>
   <si>
     <t>% расхождения</t>
   </si>
   <si>
     <t>I4PLAN</t>
+  </si>
+  <si>
+    <t>"I4Plan"</t>
+  </si>
+  <si>
+    <t>Разработанная мат. модель</t>
   </si>
 </sst>
 </file>
@@ -126,7 +114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Результаты I4PLAN</c:v>
+                  <c:v>"I4Plan"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -135,13 +123,29 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Полиномиальная аппроксимация ("I4Plan")</c:name>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1585590037951804E-2"/>
+                  <c:y val="-5.8411146665632947E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -203,7 +207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Результаты реализованного ПО</c:v>
+                  <c:v>Разработанная мат. модель</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -212,13 +216,29 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Полиномиальная аппроксимация (разработанная мат.модель)</c:name>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3199147716297959E-2"/>
+                  <c:y val="0.24870854634511924"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -279,11 +299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129136128"/>
-        <c:axId val="129060224"/>
+        <c:axId val="40361984"/>
+        <c:axId val="40363520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129136128"/>
+        <c:axId val="40361984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="201"/>
@@ -291,16 +311,41 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0"/>
+                  <a:t>Паровая</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0" baseline="0"/>
+                  <a:t> нагрузка на котел (тонн/час)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129060224"/>
+        <c:crossAx val="40363520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129060224"/>
+        <c:axId val="40363520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -309,13 +354,56 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Расход газа котлом, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>тыс.нм3/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129136128"/>
+        <c:crossAx val="40361984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.8"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -335,24 +423,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"I4Plan"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Полиномиальная аппроксимация ("I4Plan")</c:name>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5356517935258092E-3"/>
+                  <c:y val="-9.733887430737824E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.206999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Разработанная мат. модель</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Полиномиальная аппроксимация (разработанная мат.модель)</c:name>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6853237095363078E-2"/>
+                  <c:y val="0.24124877361575808"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49414144"/>
+        <c:axId val="102235520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49414144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+          <c:min val="129"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0"/>
+                  <a:t>Паровая</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0" baseline="0"/>
+                  <a:t> нагрузка, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0" baseline="0"/>
+                  <a:t>тонн/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102235520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102235520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="19"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0"/>
+                  <a:t>Расход газа, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0"/>
+                  <a:t>тыс.нм3/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49414144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.8"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3944444444444442E-2"/>
+          <c:y val="0.76003864100320795"/>
+          <c:w val="0.8843333333333333"/>
+          <c:h val="0.21218358121901429"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602457</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="31" name="Диаграмма 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -659,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M7" sqref="G1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,47 +1114,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10.237492437017901</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="H2">
         <v>130</v>
       </c>
@@ -734,21 +1152,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+5</f>
-        <v>135</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10.6301484007741</v>
-      </c>
-      <c r="E3">
-        <f>E2+2</f>
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <f>F2*1.3</f>
-        <v>2.6</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="H3">
         <v>141</v>
       </c>
@@ -768,21 +1173,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>A3+5</f>
-        <v>140</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11.022510611069301</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E22" si="2">E3+2</f>
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F21" si="3">F3*1.3</f>
-        <v>3.3800000000000003</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="H4">
         <v>183</v>
       </c>
@@ -802,21 +1194,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>A4+5</f>
-        <v>145</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11.414728483737701</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>4.394000000000001</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="H5">
         <v>198</v>
       </c>
@@ -836,21 +1215,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>A5+5</f>
-        <v>150</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11.8074361793243</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>5.7122000000000019</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="H6">
         <v>200</v>
       </c>
@@ -870,280 +1236,72 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>A6+5</f>
-        <v>155</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12.1987839526328</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>7.4258600000000028</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="K7">
         <f>AVERAGE(K2:K6)</f>
         <v>1.7452734684084845</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>A7+5</f>
-        <v>160</v>
-      </c>
-      <c r="B8" s="2">
-        <v>12.5906537288873</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>9.6536180000000034</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>A8+5</f>
-        <v>165</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12.982443520744001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>12.549703400000006</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>A9+5</f>
-        <v>170</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13.373176531298</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>16.314614420000009</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>A10+5</f>
-        <v>175</v>
-      </c>
-      <c r="B11" s="2">
-        <v>13.765873015398</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>21.208998746000013</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>A11+5</f>
-        <v>180</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14.1575634359691</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>27.571698369800018</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>A12+5</f>
-        <v>185</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14.5492753062743</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>35.843207880740025</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>A13+5</f>
-        <v>190</v>
-      </c>
-      <c r="B14" s="2">
-        <v>14.9416988270966</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>46.596170244962032</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>A14+5</f>
-        <v>195</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15.3328902846673</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>60.575021318450645</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A15+5</f>
-        <v>200</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15.724862630405299</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>78.747527713985846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>A16+5</f>
-        <v>205</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16.116994909000798</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>102.3717860281816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>A17+5</f>
-        <v>210</v>
-      </c>
-      <c r="B18" s="2">
-        <v>16.5092155524524</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>133.08332183663609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>A18+5</f>
-        <v>215</v>
-      </c>
-      <c r="B19" s="2">
-        <v>16.9019033319248</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>173.00831838762693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>A19+5</f>
-        <v>220</v>
-      </c>
-      <c r="B20" s="2">
-        <v>17.294767363772699</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>224.91081390391503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>A20+5</f>
-        <v>225</v>
-      </c>
-      <c r="B21" s="2">
-        <v>17.687967124444501</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>292.38405807508957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f>A21+5</f>
-        <v>230</v>
-      </c>
-      <c r="B22" s="2">
-        <v>18.0815217955431</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="F22">
-        <f>F21*1.3</f>
-        <v>380.09927549761647</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,13 +1312,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>130</v>
+      </c>
+      <c r="C2">
+        <f>F2 -(F2-D2)*0.7</f>
+        <v>10.417</v>
+      </c>
+      <c r="D2">
+        <v>10.24</v>
+      </c>
+      <c r="E2">
+        <f>100 - (D2*100/C2)</f>
+        <v>1.6991456273399166</v>
+      </c>
+      <c r="F2">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">F3 -(F3-D3)*0.7</f>
+        <v>11.206999999999999</v>
+      </c>
+      <c r="D3">
+        <v>11.03</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">100 - (D3*100/C3)</f>
+        <v>1.5793700365842653</v>
+      </c>
+      <c r="F3">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>189</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>15.103999999999999</v>
+      </c>
+      <c r="D4">
+        <v>14.84</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.7478813559321935</v>
+      </c>
+      <c r="F4">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>219</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>17.506</v>
+      </c>
+      <c r="D5">
+        <v>17.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.7479721238432546</v>
+      </c>
+      <c r="F5">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>AVERAGE(E2:E6)</f>
+        <v>1.6935922859249075</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
+++ b/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -32,12 +32,27 @@
   <si>
     <t>Разработанная мат. модель</t>
   </si>
+  <si>
+    <t>Расход газа</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Расход мазута</t>
+  </si>
+  <si>
+    <t>Финансовые затраты на топливо</t>
+  </si>
+  <si>
+    <t>КПД очереди котлоагрегатов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +60,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,10 +89,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -299,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40361984"/>
-        <c:axId val="40363520"/>
+        <c:axId val="174579712"/>
+        <c:axId val="174581632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40361984"/>
+        <c:axId val="174579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="201"/>
@@ -332,20 +361,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40363520"/>
+        <c:crossAx val="174581632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40363520"/>
+        <c:axId val="174581632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -393,14 +421,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40361984"/>
+        <c:crossAx val="174579712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -408,7 +435,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -605,11 +631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49414144"/>
-        <c:axId val="102235520"/>
+        <c:axId val="174633728"/>
+        <c:axId val="174635648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49414144"/>
+        <c:axId val="174633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -657,13 +683,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102235520"/>
+        <c:crossAx val="174635648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102235520"/>
+        <c:axId val="174635648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="19"/>
@@ -708,7 +734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49414144"/>
+        <c:crossAx val="174633728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -726,6 +752,946 @@
           <c:h val="0.21218358121901429"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Расход газа</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>39.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112475520"/>
+        <c:axId val="112473984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112475520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t> относительной важности расхода газа по отношению к другим критериям, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112473984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112473984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Расход</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t> газа, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t>тыс.нм3/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112475520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Расход мазута</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148568704"/>
+        <c:axId val="148567168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148568704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент относительной важности расхода газа по отношению к другим критериям, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148567168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="148567168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="34"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Расход мазута, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>т./час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148568704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Финансовые затраты на топливо</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>196.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="119094272"/>
+        <c:axId val="119092352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119094272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент относительной важности расхода газа по отношению к другим критериям, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119092352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119092352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="195"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Финансовые затраты на топливо, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>тыс.руб./час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119094272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КПД очереди котлоагрегатов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121766656"/>
+        <c:axId val="120859648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121766656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент относительной важности расхода газа по отношению к другим критериям, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120859648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="120859648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>КПД очереди котлоагрегатов, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121766656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -802,6 +1768,131 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1314,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1368,14 +2459,14 @@
         <v>140</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">F3 -(F3-D3)*0.7</f>
+        <f t="shared" ref="C3:C5" si="0">F3 -(F3-D3)*0.7</f>
         <v>11.206999999999999</v>
       </c>
       <c r="D3">
         <v>11.03</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">100 - (D3*100/C3)</f>
+        <f t="shared" ref="E3:E5" si="1">100 - (D3*100/C3)</f>
         <v>1.5793700365842653</v>
       </c>
       <c r="F3">
@@ -1434,12 +2525,343 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>39.29</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4">
+        <v>196.9</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2+10</f>
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="E3" s="3">
+        <f>E2+10</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="I3" s="3">
+        <f>I2+10</f>
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
+        <v>200.9</v>
+      </c>
+      <c r="M3" s="3">
+        <f>M2+10</f>
+        <v>20</v>
+      </c>
+      <c r="N3" s="4">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A10" si="0">A3+10</f>
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E10" si="1">E3+10</f>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10.88</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I10" si="2">I3+10</f>
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <v>201.1</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M10" si="3">M3+10</f>
+        <v>30</v>
+      </c>
+      <c r="N4" s="4">
+        <v>92.8</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J5" s="4">
+        <v>201.5</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N5" s="4">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>14.84</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>246.7</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N6" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F7" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J7" s="4">
+        <v>247.8</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="N7" s="4">
+        <v>92</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F8" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J8" s="4">
+        <v>253.23</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="N8" s="4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F9" s="4">
+        <v>33.06</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J9" s="4">
+        <v>254.1</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="N9" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F10" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="J10" s="4">
+        <v>254.6</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="N10" s="4">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
+++ b/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>X</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>"I4Plan"</t>
-  </si>
-  <si>
-    <t>Разработанная мат. модель</t>
   </si>
   <si>
     <t>Расход газа</t>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>КПД очереди котлоагрегатов</t>
+  </si>
+  <si>
+    <t>Разработанный программный комплекс</t>
+  </si>
+  <si>
+    <t>Разработанная программный комплекс</t>
   </si>
 </sst>
 </file>
@@ -151,32 +154,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:name>Полиномиальная аппроксимация ("I4Plan")</c:name>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.1585590037951804E-2"/>
-                  <c:y val="-5.8411146665632947E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$H$2:$H$6</c:f>
@@ -236,7 +213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Разработанная мат. модель</c:v>
+                  <c:v>Разработанный программный комплекс</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -244,32 +221,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:name>Полиномиальная аппроксимация (разработанная мат.модель)</c:name>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.3199147716297959E-2"/>
-                  <c:y val="0.24870854634511924"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$H$2:$H$6</c:f>
@@ -328,11 +279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174579712"/>
-        <c:axId val="174581632"/>
+        <c:axId val="84496768"/>
+        <c:axId val="84498688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174579712"/>
+        <c:axId val="84496768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="201"/>
@@ -361,19 +312,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174581632"/>
+        <c:crossAx val="84498688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174581632"/>
+        <c:axId val="84498688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -421,13 +373,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174579712"/>
+        <c:crossAx val="84496768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -435,6 +388,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -486,22 +440,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:name>Полиномиальная аппроксимация ("I4Plan")</c:name>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5356517935258092E-3"/>
-                  <c:y val="-9.733887430737824E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$B$2:$B$5</c:f>
@@ -555,7 +493,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Разработанная мат. модель</c:v>
+                  <c:v>Разработанная программный комплекс</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -563,22 +501,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:name>Полиномиальная аппроксимация (разработанная мат.модель)</c:name>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.6853237095363078E-2"/>
-                  <c:y val="0.24124877361575808"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$B$2:$B$5</c:f>
@@ -631,11 +553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174633728"/>
-        <c:axId val="174635648"/>
+        <c:axId val="87929984"/>
+        <c:axId val="87931904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174633728"/>
+        <c:axId val="87929984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -683,13 +605,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174635648"/>
+        <c:crossAx val="87931904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174635648"/>
+        <c:axId val="87931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="19"/>
@@ -734,7 +656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174633728"/>
+        <c:crossAx val="87929984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -885,11 +807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112475520"/>
-        <c:axId val="112473984"/>
+        <c:axId val="86728064"/>
+        <c:axId val="86730240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112475520"/>
+        <c:axId val="86728064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,20 +842,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112473984"/>
+        <c:crossAx val="86730240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112473984"/>
+        <c:axId val="86730240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -975,14 +896,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112475520"/>
+        <c:crossAx val="86728064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -990,7 +910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1124,11 +1043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148568704"/>
-        <c:axId val="148567168"/>
+        <c:axId val="86750720"/>
+        <c:axId val="86752640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148568704"/>
+        <c:axId val="86750720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,20 +1080,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148567168"/>
+        <c:crossAx val="86752640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148567168"/>
+        <c:axId val="86752640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -1212,14 +1130,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148568704"/>
+        <c:crossAx val="86750720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1227,7 +1144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1361,11 +1277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119094272"/>
-        <c:axId val="119092352"/>
+        <c:axId val="94880896"/>
+        <c:axId val="94882816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119094272"/>
+        <c:axId val="94880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,20 +1314,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119092352"/>
+        <c:crossAx val="94882816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119092352"/>
+        <c:axId val="94882816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -1449,14 +1364,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119094272"/>
+        <c:crossAx val="94880896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1464,7 +1378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1598,11 +1511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121766656"/>
-        <c:axId val="120859648"/>
+        <c:axId val="95227264"/>
+        <c:axId val="95229440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121766656"/>
+        <c:axId val="95227264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,20 +1548,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120859648"/>
+        <c:crossAx val="95229440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120859648"/>
+        <c:axId val="95229440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,14 +1588,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121766656"/>
+        <c:crossAx val="95227264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1691,7 +1602,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2191,7 +2101,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="G1:M7"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -2405,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2527,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -2546,28 +2456,28 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>

--- a/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
+++ b/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -49,6 +50,27 @@
   </si>
   <si>
     <t>Разработанная программный комплекс</t>
+  </si>
+  <si>
+    <t>Паровая нагрузка</t>
+  </si>
+  <si>
+    <t>Фин. Затраты</t>
+  </si>
+  <si>
+    <t>Фин.затраты I4Plan</t>
+  </si>
+  <si>
+    <t>КПД</t>
+  </si>
+  <si>
+    <t>КПД I4Plan</t>
+  </si>
+  <si>
+    <t>Разработанный ПК</t>
+  </si>
+  <si>
+    <t>ПК "I4Plan"</t>
   </si>
 </sst>
 </file>
@@ -279,11 +301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84496768"/>
-        <c:axId val="84498688"/>
+        <c:axId val="174467328"/>
+        <c:axId val="174469504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84496768"/>
+        <c:axId val="174467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="201"/>
@@ -312,20 +334,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84498688"/>
+        <c:crossAx val="174469504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84498688"/>
+        <c:axId val="174469504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -373,14 +394,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84496768"/>
+        <c:crossAx val="174467328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -388,7 +408,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -553,11 +572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87929984"/>
-        <c:axId val="87931904"/>
+        <c:axId val="174519808"/>
+        <c:axId val="174521728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87929984"/>
+        <c:axId val="174519808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -605,13 +624,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87931904"/>
+        <c:crossAx val="174521728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87931904"/>
+        <c:axId val="174521728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="19"/>
@@ -656,7 +675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87929984"/>
+        <c:crossAx val="174519808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -807,11 +826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86728064"/>
-        <c:axId val="86730240"/>
+        <c:axId val="181350400"/>
+        <c:axId val="181352320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86728064"/>
+        <c:axId val="181350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,19 +861,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86730240"/>
+        <c:crossAx val="181352320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86730240"/>
+        <c:axId val="181352320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -896,13 +916,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86728064"/>
+        <c:crossAx val="181350400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -910,6 +931,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1043,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86750720"/>
-        <c:axId val="86752640"/>
+        <c:axId val="181372800"/>
+        <c:axId val="181383168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86750720"/>
+        <c:axId val="181372800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,19 +1102,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86752640"/>
+        <c:crossAx val="181383168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86752640"/>
+        <c:axId val="181383168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -1130,13 +1153,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86750720"/>
+        <c:crossAx val="181372800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1144,6 +1168,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1277,11 +1302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94880896"/>
-        <c:axId val="94882816"/>
+        <c:axId val="181678080"/>
+        <c:axId val="181680000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94880896"/>
+        <c:axId val="181678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,19 +1339,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94882816"/>
+        <c:crossAx val="181680000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94882816"/>
+        <c:axId val="181680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -1364,13 +1390,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94880896"/>
+        <c:crossAx val="181678080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1378,6 +1405,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1511,11 +1539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95227264"/>
-        <c:axId val="95229440"/>
+        <c:axId val="181714944"/>
+        <c:axId val="181716864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95227264"/>
+        <c:axId val="181714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,13 +1582,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95229440"/>
+        <c:crossAx val="181716864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95229440"/>
+        <c:axId val="181716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95227264"/>
+        <c:crossAx val="181714944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1602,6 +1630,421 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> расхода газа от суммарной паропроизводительности </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Разработанный ПК</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПК "I4Plan"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0061510000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.128275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.172681000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.019354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.837703999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.535627399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.155018199999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.768889399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.992213999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.465630000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.843619000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="157553024"/>
+        <c:axId val="157577984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157553024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Суммарная</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t> паропроизводительность очереди котлоагрегатов, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t>т/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157577984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157577984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:t>Расход</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t> газа, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="0" baseline="0"/>
+                  <a:t>тыс.нм3/час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="157553024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1803,6 +2246,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2315,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,4 +3252,249 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="C2">
+        <f>B2*1.0173</f>
+        <v>8.0061510000000009</v>
+      </c>
+      <c r="F2" s="1">
+        <v>27571.37</v>
+      </c>
+      <c r="K2" s="1">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="C3">
+        <f>B3*1.1173</f>
+        <v>13.128275</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41136.78</v>
+      </c>
+      <c r="K3" s="1">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15.63</v>
+      </c>
+      <c r="C4">
+        <f>B4*1.0987</f>
+        <v>17.172681000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>54698.235999999997</v>
+      </c>
+      <c r="K4" s="1">
+        <v>94.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18.89</v>
+      </c>
+      <c r="C5">
+        <f>B5*1.2186</f>
+        <v>23.019354</v>
+      </c>
+      <c r="F5" s="1">
+        <v>69845.34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22.48</v>
+      </c>
+      <c r="C6">
+        <f>B6*1.3273</f>
+        <v>29.837703999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>82201.513000000006</v>
+      </c>
+      <c r="K6" s="1">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7" s="1">
+        <v>27.38</v>
+      </c>
+      <c r="C7">
+        <f>B7*1.07873</f>
+        <v>29.535627399999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>95828.331000000006</v>
+      </c>
+      <c r="K7" s="1">
+        <v>94.054000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8" s="1">
+        <v>31.34</v>
+      </c>
+      <c r="C8">
+        <f>B8*1.12173</f>
+        <v>35.155018199999994</v>
+      </c>
+      <c r="F8" s="1">
+        <v>109677.74</v>
+      </c>
+      <c r="K8" s="1">
+        <v>93.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9" s="1">
+        <v>35.277999999999999</v>
+      </c>
+      <c r="C9">
+        <f>B9*1.1273</f>
+        <v>39.768889399999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>123470.39999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>93.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39.18</v>
+      </c>
+      <c r="C10">
+        <f>B10*1.0973</f>
+        <v>42.992213999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <v>137116.24</v>
+      </c>
+      <c r="K10" s="1">
+        <v>93.903999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>550</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="C11">
+        <f>B11*1.2173</f>
+        <v>52.465630000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150794.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>93.924999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12" s="1">
+        <v>47.03</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C3:C12" si="0">B12*1.0173</f>
+        <v>47.843619000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <v>164592.67000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>93.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
+++ b/optimization/4 семестр/РПЗ/Сравнение результатов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -301,11 +301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174467328"/>
-        <c:axId val="174469504"/>
+        <c:axId val="173615744"/>
+        <c:axId val="173622016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174467328"/>
+        <c:axId val="173615744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="201"/>
@@ -334,19 +334,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174469504"/>
+        <c:crossAx val="173622016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174469504"/>
+        <c:axId val="173622016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -394,13 +395,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174467328"/>
+        <c:crossAx val="173615744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -408,6 +410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -572,11 +575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174519808"/>
-        <c:axId val="174521728"/>
+        <c:axId val="173668224"/>
+        <c:axId val="173735936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174519808"/>
+        <c:axId val="173668224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -624,13 +627,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174521728"/>
+        <c:crossAx val="173735936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174521728"/>
+        <c:axId val="173735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="19"/>
@@ -675,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174519808"/>
+        <c:crossAx val="173668224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.8"/>
@@ -826,11 +829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181350400"/>
-        <c:axId val="181352320"/>
+        <c:axId val="174928256"/>
+        <c:axId val="174930176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181350400"/>
+        <c:axId val="174928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,13 +871,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181352320"/>
+        <c:crossAx val="174930176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181352320"/>
+        <c:axId val="174930176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -923,7 +926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181350400"/>
+        <c:crossAx val="174928256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1065,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181372800"/>
-        <c:axId val="181383168"/>
+        <c:axId val="174946560"/>
+        <c:axId val="174969216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181372800"/>
+        <c:axId val="174946560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,13 +1112,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181383168"/>
+        <c:crossAx val="174969216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181383168"/>
+        <c:axId val="174969216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -1160,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181372800"/>
+        <c:crossAx val="174946560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1302,11 +1305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181678080"/>
-        <c:axId val="181680000"/>
+        <c:axId val="175010176"/>
+        <c:axId val="175012096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181678080"/>
+        <c:axId val="175010176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,13 +1349,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181680000"/>
+        <c:crossAx val="175012096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181680000"/>
+        <c:axId val="175012096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -1397,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181678080"/>
+        <c:crossAx val="175010176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1427,14 +1430,38 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость КПД</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> очереди котлоагрегатов от коэффициентов относительной важноси</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1454,6 +1481,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1539,11 +1575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181714944"/>
-        <c:axId val="181716864"/>
+        <c:axId val="175034752"/>
+        <c:axId val="175036672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181714944"/>
+        <c:axId val="175034752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,36 +1595,31 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>Коэффициент относительной важности расхода газа по отношению к другим критериям, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>[%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181716864"/>
+        <c:crossAx val="175036672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181716864"/>
+        <c:axId val="175036672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,31 +1636,32 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" b="0"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>КПД очереди котлоагрегатов, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>[%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" b="0"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181714944"/>
+        <c:crossAx val="175034752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1645,6 +1677,555 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> значений критериев оптимизации от коэффициентов относительной важности</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Расход газа</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$D$38:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>39.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Расход мазута</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$E$38:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="133542272"/>
+        <c:axId val="144593280"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Финансовые затраты на топливо</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$F$38:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>196.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="132981504"/>
+        <c:axId val="132974464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133542272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Значение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> коэффициента относительной важноси расхода газа по отношению к другим критериям оптимизации, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144593280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144593280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Расход</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> топлива, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>т./час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133542272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="132974464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="180"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Финансовые</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> затраты на топливо, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>тыс.руб./час</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132981504"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="132981504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132974464"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1925,11 +2506,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="157553024"/>
-        <c:axId val="157577984"/>
+        <c:axId val="175516672"/>
+        <c:axId val="175539328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157553024"/>
+        <c:axId val="175516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +2556,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157577984"/>
+        <c:crossAx val="175539328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +2564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157577984"/>
+        <c:axId val="175539328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -2036,7 +2617,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="157553024"/>
+        <c:crossAx val="175516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2134,15 +2715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2223,16 +2804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2246,6 +2827,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>146445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2071688</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2578,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2913,20 +3524,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
     <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
@@ -3244,6 +3856,184 @@
         <v>90</v>
       </c>
       <c r="N10" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5">
+        <v>39.29</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="F38" s="4">
+        <v>196.9</v>
+      </c>
+      <c r="G38" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <f>C38+10</f>
+        <v>20</v>
+      </c>
+      <c r="D39" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="F39" s="4">
+        <v>200.9</v>
+      </c>
+      <c r="G39" s="4">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:C46" si="4">C39+10</f>
+        <v>30</v>
+      </c>
+      <c r="D40" s="5">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10.88</v>
+      </c>
+      <c r="F40" s="4">
+        <v>201.1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="E41" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="F41" s="4">
+        <v>201.5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="5">
+        <v>14.84</v>
+      </c>
+      <c r="E42" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="F42" s="4">
+        <v>246.7</v>
+      </c>
+      <c r="G42" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D43" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>247.8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D44" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="E44" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="F44" s="4">
+        <v>253.23</v>
+      </c>
+      <c r="G44" s="4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D45" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="E45" s="4">
+        <v>33.06</v>
+      </c>
+      <c r="F45" s="4">
+        <v>254.1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D46" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="E46" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="F46" s="4">
+        <v>254.6</v>
+      </c>
+      <c r="G46" s="4">
         <v>92</v>
       </c>
     </row>
@@ -3258,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,7 +4272,7 @@
         <v>47.03</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C3:C12" si="0">B12*1.0173</f>
+        <f t="shared" ref="C12" si="0">B12*1.0173</f>
         <v>47.843619000000004</v>
       </c>
       <c r="F12" s="1">
